--- a/Data/Raw data/NN_SAM_2020.xlsx
+++ b/Data/Raw data/NN_SAM_2020.xlsx
@@ -507,10 +507,10 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.7"/>
   </cols>
@@ -851,14 +851,14 @@
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ23" activeCellId="0" sqref="AZ23"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="AR48" activeCellId="0" sqref="AR48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
   </cols>
@@ -1704,7 +1704,7 @@
         <v>70</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>45</v>
@@ -1719,7 +1719,7 @@
         <v>50</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>55</v>
@@ -1780,7 +1780,7 @@
         <v>60</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>60</v>
@@ -1795,7 +1795,7 @@
         <v>70</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>45</v>
@@ -1847,7 +1847,7 @@
         <v>1715</v>
       </c>
       <c r="AR46" s="0" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AS46" s="0" t="n">
         <v>80</v>
@@ -1862,7 +1862,7 @@
         <v>30</v>
       </c>
       <c r="AR47" s="0" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="AS47" s="0" t="n">
         <v>110</v>
@@ -1877,7 +1877,7 @@
         <v>32</v>
       </c>
       <c r="AR48" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AS48" s="0" t="n">
         <v>155</v>
@@ -1892,7 +1892,7 @@
         <v>36</v>
       </c>
       <c r="AR49" s="0" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AS49" s="0" t="n">
         <v>210</v>
@@ -1907,7 +1907,7 @@
         <v>40</v>
       </c>
       <c r="AR50" s="0" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="AS50" s="0" t="n">
         <v>330</v>

--- a/Data/Raw data/NN_SAM_2020.xlsx
+++ b/Data/Raw data/NN_SAM_2020.xlsx
@@ -507,10 +507,10 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.7"/>
   </cols>
@@ -851,14 +851,14 @@
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T19" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
       <selection pane="bottomRight" activeCell="AR48" activeCellId="0" sqref="AR48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
   </cols>
@@ -1118,12 +1118,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>10</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>15</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>20</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>24</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>28</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>34</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>38</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>42</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>45</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>48</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>52</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>55</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>58</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>61</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>64</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>67</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>70</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>73</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>76</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>79</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>82</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>70</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>45</v>
@@ -1719,7 +1719,7 @@
         <v>50</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>55</v>
@@ -1766,7 +1766,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>4</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>60</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>60</v>
@@ -1795,7 +1795,7 @@
         <v>70</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>45</v>
@@ -1838,7 +1838,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>26</v>
       </c>
@@ -1847,77 +1847,57 @@
         <v>1715</v>
       </c>
       <c r="AR46" s="0" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AS46" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AT46" s="0" t="n">
-        <f aca="false">SUM(AT23:AT43)</f>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>30</v>
       </c>
       <c r="AR47" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS47" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="AU47" s="0" t="n">
-        <f aca="false">SUM(AU23:AU43)</f>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>32</v>
       </c>
       <c r="AR48" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AS48" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="AV48" s="0" t="n">
-        <f aca="false">SUM(AV23:AV43)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>36</v>
       </c>
       <c r="AR49" s="0" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="AS49" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="AW49" s="0" t="n">
-        <f aca="false">SUM(AW23:AW43)</f>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>40</v>
       </c>
       <c r="AR50" s="0" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AS50" s="0" t="n">
         <v>330</v>
       </c>
-      <c r="AX50" s="0" t="n">
-        <f aca="false">SUM(AX23:AX43)</f>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>12</v>
       </c>
@@ -1929,12 +1909,8 @@
         <f aca="false">SUM(AS46:AS50)</f>
         <v>885</v>
       </c>
-      <c r="AY51" s="0" t="n">
-        <f aca="false">SUM(AY23:AY43)</f>
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>17</v>
       </c>
@@ -1952,10 +1928,6 @@
       </c>
       <c r="AX52" s="0" t="n">
         <v>94</v>
-      </c>
-      <c r="AY52" s="4" t="n">
-        <f aca="false">SUM(AT52:AX52)</f>
-        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Raw data/NN_SAM_2020.xlsx
+++ b/Data/Raw data/NN_SAM_2020.xlsx
@@ -507,10 +507,10 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.7"/>
   </cols>
@@ -855,10 +855,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="AR48" activeCellId="0" sqref="AR48"/>
+      <selection pane="bottomRight" activeCell="AR51" activeCellId="0" sqref="AR51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
   </cols>
@@ -1850,7 +1850,7 @@
         <v>85</v>
       </c>
       <c r="AS46" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,10 +1858,10 @@
         <v>30</v>
       </c>
       <c r="AR47" s="0" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AS47" s="0" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,10 +1869,10 @@
         <v>32</v>
       </c>
       <c r="AR48" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="AS48" s="0" t="n">
         <v>130</v>
-      </c>
-      <c r="AS48" s="0" t="n">
-        <v>155</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,10 +1880,10 @@
         <v>36</v>
       </c>
       <c r="AR49" s="0" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AS49" s="0" t="n">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,10 +1891,10 @@
         <v>40</v>
       </c>
       <c r="AR50" s="0" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AS50" s="0" t="n">
-        <v>330</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Data/Raw data/NN_SAM_2020.xlsx
+++ b/Data/Raw data/NN_SAM_2020.xlsx
@@ -1,18 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nauka\GitHub\cge_model_python\Data\Raw data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66266751-ECB0-404C-AE5C-32C375228580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11475" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Micro SAM 2020" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Notes" sheetId="1" r:id="rId1"/>
+    <sheet name="Micro SAM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -23,267 +36,263 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="84">
   <si>
-    <t xml:space="preserve">shortcut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commodities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earnings ordered households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forestry and logging,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOU_0-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aoilext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coilext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil extraction,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOU_30-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturing – Secondary sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOU_60-90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small workshops producing pots, artisan production.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOU_90-95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mills producing textiles,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOU_95-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factories producing steel, chemicals, plastic, car.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afoodpr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfoodpr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food production such as brewing plants, and food processing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aoilref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coilref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil refinery.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tertiary – Service sector of the economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aretail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cretail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retail industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aitser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer and I.T. services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atourism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctourism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotels and tourism services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arestau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crestau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurants and Cafes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atransp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctransp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport – rail, bus, air, sea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acommun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ccommun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banking services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ainsur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cinsur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pension services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afoodser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cfoodser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food and beverage services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postal services</t>
+    <t>shortcut</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Primary sector</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>afarm</t>
+  </si>
+  <si>
+    <t>cfarm</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>GOV</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>afish</t>
+  </si>
+  <si>
+    <t>cfish</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>DTAX</t>
+  </si>
+  <si>
+    <t>Direct Tax</t>
+  </si>
+  <si>
+    <t>amin</t>
+  </si>
+  <si>
+    <t>cmin</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Earnings ordered households</t>
+  </si>
+  <si>
+    <t>afore</t>
+  </si>
+  <si>
+    <t>cfore</t>
+  </si>
+  <si>
+    <t>Forestry and logging,</t>
+  </si>
+  <si>
+    <t>HOU_0-30</t>
+  </si>
+  <si>
+    <t>aoilext</t>
+  </si>
+  <si>
+    <t>coilext</t>
+  </si>
+  <si>
+    <t>Oil extraction,</t>
+  </si>
+  <si>
+    <t>HOU_30-60</t>
+  </si>
+  <si>
+    <t>Manufacturing – Secondary sector</t>
+  </si>
+  <si>
+    <t>HOU_60-90</t>
+  </si>
+  <si>
+    <t>asmwork</t>
+  </si>
+  <si>
+    <t>csmwork</t>
+  </si>
+  <si>
+    <t>Small workshops producing pots, artisan production.</t>
+  </si>
+  <si>
+    <t>HOU_90-95</t>
+  </si>
+  <si>
+    <t>amills</t>
+  </si>
+  <si>
+    <t>cmills</t>
+  </si>
+  <si>
+    <t>Mills producing textiles,</t>
+  </si>
+  <si>
+    <t>HOU_95-100</t>
+  </si>
+  <si>
+    <t>afact</t>
+  </si>
+  <si>
+    <t>cfact</t>
+  </si>
+  <si>
+    <t>Factories producing steel, chemicals, plastic, car.</t>
+  </si>
+  <si>
+    <t>afoodpr</t>
+  </si>
+  <si>
+    <t>cfoodpr</t>
+  </si>
+  <si>
+    <t>Food production such as brewing plants, and food processing.</t>
+  </si>
+  <si>
+    <t>aoilref</t>
+  </si>
+  <si>
+    <t>coilref</t>
+  </si>
+  <si>
+    <t>Oil refinery.</t>
+  </si>
+  <si>
+    <t>Tertiary – Service sector of the economy</t>
+  </si>
+  <si>
+    <t>aretail</t>
+  </si>
+  <si>
+    <t>cretail</t>
+  </si>
+  <si>
+    <t>Retail industry</t>
+  </si>
+  <si>
+    <t>aitser</t>
+  </si>
+  <si>
+    <t>citser</t>
+  </si>
+  <si>
+    <t>Computer and I.T. services</t>
+  </si>
+  <si>
+    <t>atourism</t>
+  </si>
+  <si>
+    <t>ctourism</t>
+  </si>
+  <si>
+    <t>Hotels and tourism services</t>
+  </si>
+  <si>
+    <t>arestau</t>
+  </si>
+  <si>
+    <t>crestau</t>
+  </si>
+  <si>
+    <t>Restaurants and Cafes</t>
+  </si>
+  <si>
+    <t>atransp</t>
+  </si>
+  <si>
+    <t>ctransp</t>
+  </si>
+  <si>
+    <t>Transport – rail, bus, air, sea</t>
+  </si>
+  <si>
+    <t>acommun</t>
+  </si>
+  <si>
+    <t>ccommun</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>abank</t>
+  </si>
+  <si>
+    <t>cbank</t>
+  </si>
+  <si>
+    <t>Banking services</t>
+  </si>
+  <si>
+    <t>ainsur</t>
+  </si>
+  <si>
+    <t>cinsur</t>
+  </si>
+  <si>
+    <t>Insurance services</t>
+  </si>
+  <si>
+    <t>apension</t>
+  </si>
+  <si>
+    <t>cpension</t>
+  </si>
+  <si>
+    <t>Pension services</t>
+  </si>
+  <si>
+    <t>afoodser</t>
+  </si>
+  <si>
+    <t>cfoodser</t>
+  </si>
+  <si>
+    <t>Food and beverage services</t>
+  </si>
+  <si>
+    <t>apost</t>
+  </si>
+  <si>
+    <t>cpost</t>
+  </si>
+  <si>
+    <t>Postal services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -292,25 +301,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -358,7 +349,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -366,73 +357,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in 60% - Accent3" xfId="20"/>
-    <cellStyle name="Excel Built-in 20% - Accent3" xfId="21"/>
-    <cellStyle name="Excel Built-in 40% - Accent3" xfId="22"/>
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in 20% - Accent3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in 40% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Excel Built-in 60% - Accent3" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -491,31 +436,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.7"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -545,7 +798,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -562,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -579,7 +832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -596,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -611,7 +864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -626,7 +879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -637,7 +890,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -652,7 +905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -667,7 +920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -682,7 +935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
@@ -693,7 +946,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>47</v>
       </c>
@@ -704,14 +957,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
@@ -722,7 +975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
@@ -733,7 +986,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>57</v>
       </c>
@@ -744,7 +997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>60</v>
       </c>
@@ -755,7 +1008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>63</v>
       </c>
@@ -766,7 +1019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>66</v>
       </c>
@@ -777,7 +1030,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>69</v>
       </c>
@@ -788,7 +1041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
@@ -799,7 +1052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>75</v>
       </c>
@@ -810,7 +1063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>78</v>
       </c>
@@ -821,7 +1074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
         <v>81</v>
       </c>
@@ -833,1110 +1086,1096 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="T19" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="AR51" activeCellId="0" sqref="AR51"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="AR51" sqref="AR51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>55</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>58</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>70</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>73</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>76</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
         <v>82</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" t="s">
         <v>32</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" t="s">
         <v>12</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="AT23" s="0" t="n">
+      <c r="AT23">
         <v>14</v>
       </c>
-      <c r="AU23" s="0" t="n">
+      <c r="AU23">
         <v>15</v>
       </c>
-      <c r="AV23" s="0" t="n">
+      <c r="AV23">
         <v>17</v>
       </c>
-      <c r="AW23" s="0" t="n">
+      <c r="AW23">
         <v>16</v>
       </c>
-      <c r="AX23" s="0" t="n">
+      <c r="AX23">
         <v>13</v>
       </c>
-      <c r="AY23" s="0" t="n">
+      <c r="AY23">
         <v>8</v>
       </c>
-      <c r="AZ23" s="4" t="n">
-        <f aca="false">SUM(AT23:AY23)</f>
+      <c r="AZ23" s="4">
+        <f t="shared" ref="AZ23:AZ43" si="0">SUM(AT23:AY23)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="AT24" s="0" t="n">
+      <c r="AT24">
         <v>10</v>
       </c>
-      <c r="AU24" s="0" t="n">
+      <c r="AU24">
         <v>11</v>
       </c>
-      <c r="AV24" s="0" t="n">
+      <c r="AV24">
         <v>16</v>
       </c>
-      <c r="AW24" s="0" t="n">
+      <c r="AW24">
         <v>21</v>
       </c>
-      <c r="AX24" s="0" t="n">
+      <c r="AX24">
         <v>23</v>
       </c>
-      <c r="AY24" s="0" t="n">
+      <c r="AY24">
         <v>7</v>
       </c>
-      <c r="AZ24" s="4" t="n">
-        <f aca="false">SUM(AT24:AY24)</f>
+      <c r="AZ24" s="4">
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="AT25" s="0" t="n">
+      <c r="AT25">
         <v>11</v>
       </c>
-      <c r="AU25" s="0" t="n">
+      <c r="AU25">
         <v>13</v>
       </c>
-      <c r="AV25" s="0" t="n">
+      <c r="AV25">
         <v>13</v>
       </c>
-      <c r="AW25" s="0" t="n">
+      <c r="AW25">
         <v>14</v>
       </c>
-      <c r="AX25" s="0" t="n">
+      <c r="AX25">
         <v>20</v>
       </c>
-      <c r="AY25" s="0" t="n">
+      <c r="AY25">
         <v>33</v>
       </c>
-      <c r="AZ25" s="4" t="n">
-        <f aca="false">SUM(AT25:AY25)</f>
+      <c r="AZ25" s="4">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="AT26" s="0" t="n">
+      <c r="AT26">
         <v>13</v>
       </c>
-      <c r="AU26" s="0" t="n">
+      <c r="AU26">
         <v>15</v>
       </c>
-      <c r="AV26" s="0" t="n">
+      <c r="AV26">
         <v>16</v>
       </c>
-      <c r="AW26" s="0" t="n">
+      <c r="AW26">
         <v>11</v>
       </c>
-      <c r="AX26" s="0" t="n">
+      <c r="AX26">
         <v>10</v>
       </c>
-      <c r="AY26" s="0" t="n">
+      <c r="AY26">
         <v>13</v>
       </c>
-      <c r="AZ26" s="4" t="n">
-        <f aca="false">SUM(AT26:AY26)</f>
+      <c r="AZ26" s="4">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="AT27" s="0" t="n">
+      <c r="AT27">
         <v>11</v>
       </c>
-      <c r="AU27" s="0" t="n">
+      <c r="AU27">
         <v>12</v>
       </c>
-      <c r="AV27" s="0" t="n">
+      <c r="AV27">
         <v>17</v>
       </c>
-      <c r="AW27" s="0" t="n">
+      <c r="AW27">
         <v>14</v>
       </c>
-      <c r="AX27" s="0" t="n">
+      <c r="AX27">
         <v>16</v>
       </c>
-      <c r="AY27" s="0" t="n">
+      <c r="AY27">
         <v>15</v>
       </c>
-      <c r="AZ27" s="4" t="n">
-        <f aca="false">SUM(AT27:AY27)</f>
+      <c r="AZ27" s="4">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="AT28" s="0" t="n">
+      <c r="AT28">
         <v>10</v>
       </c>
-      <c r="AU28" s="0" t="n">
+      <c r="AU28">
         <v>12</v>
       </c>
-      <c r="AV28" s="0" t="n">
+      <c r="AV28">
         <v>12</v>
       </c>
-      <c r="AW28" s="0" t="n">
+      <c r="AW28">
         <v>11</v>
       </c>
-      <c r="AX28" s="0" t="n">
+      <c r="AX28">
         <v>11</v>
       </c>
-      <c r="AY28" s="0" t="n">
+      <c r="AY28">
         <v>12</v>
       </c>
-      <c r="AZ28" s="4" t="n">
-        <f aca="false">SUM(AT28:AY28)</f>
+      <c r="AZ28" s="4">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="AT29" s="0" t="n">
+      <c r="AT29">
         <v>8</v>
       </c>
-      <c r="AU29" s="0" t="n">
+      <c r="AU29">
         <v>13</v>
       </c>
-      <c r="AV29" s="0" t="n">
+      <c r="AV29">
         <v>16</v>
       </c>
-      <c r="AW29" s="0" t="n">
+      <c r="AW29">
         <v>12</v>
       </c>
-      <c r="AX29" s="0" t="n">
+      <c r="AX29">
         <v>12</v>
       </c>
-      <c r="AY29" s="0" t="n">
+      <c r="AY29">
         <v>13</v>
       </c>
-      <c r="AZ29" s="4" t="n">
-        <f aca="false">SUM(AT29:AY29)</f>
+      <c r="AZ29" s="4">
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="AT30" s="0" t="n">
+      <c r="AT30">
         <v>11</v>
       </c>
-      <c r="AU30" s="0" t="n">
+      <c r="AU30">
         <v>14</v>
       </c>
-      <c r="AV30" s="0" t="n">
+      <c r="AV30">
         <v>16</v>
       </c>
-      <c r="AW30" s="0" t="n">
+      <c r="AW30">
         <v>16</v>
       </c>
-      <c r="AX30" s="0" t="n">
+      <c r="AX30">
         <v>17</v>
       </c>
-      <c r="AY30" s="0" t="n">
+      <c r="AY30">
         <v>10</v>
       </c>
-      <c r="AZ30" s="4" t="n">
-        <f aca="false">SUM(AT30:AY30)</f>
+      <c r="AZ30" s="4">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="AT31" s="0" t="n">
+      <c r="AT31">
         <v>13</v>
       </c>
-      <c r="AU31" s="0" t="n">
+      <c r="AU31">
         <v>16</v>
       </c>
-      <c r="AV31" s="0" t="n">
+      <c r="AV31">
         <v>16</v>
       </c>
-      <c r="AW31" s="0" t="n">
+      <c r="AW31">
         <v>13</v>
       </c>
-      <c r="AX31" s="0" t="n">
+      <c r="AX31">
         <v>14</v>
       </c>
-      <c r="AY31" s="0" t="n">
+      <c r="AY31">
         <v>6</v>
       </c>
-      <c r="AZ31" s="4" t="n">
-        <f aca="false">SUM(AT31:AY31)</f>
+      <c r="AZ31" s="4">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="AT32" s="0" t="n">
+      <c r="AT32">
         <v>12</v>
       </c>
-      <c r="AU32" s="0" t="n">
+      <c r="AU32">
         <v>12</v>
       </c>
-      <c r="AV32" s="0" t="n">
+      <c r="AV32">
         <v>16</v>
       </c>
-      <c r="AW32" s="0" t="n">
+      <c r="AW32">
         <v>15</v>
       </c>
-      <c r="AX32" s="0" t="n">
+      <c r="AX32">
         <v>17</v>
       </c>
-      <c r="AY32" s="0" t="n">
+      <c r="AY32">
         <v>23</v>
       </c>
-      <c r="AZ32" s="4" t="n">
-        <f aca="false">SUM(AT32:AY32)</f>
+      <c r="AZ32" s="4">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="AT33" s="0" t="n">
+      <c r="AT33">
         <v>14</v>
       </c>
-      <c r="AU33" s="0" t="n">
+      <c r="AU33">
         <v>17</v>
       </c>
-      <c r="AV33" s="0" t="n">
+      <c r="AV33">
         <v>17</v>
       </c>
-      <c r="AW33" s="0" t="n">
+      <c r="AW33">
         <v>13</v>
       </c>
-      <c r="AX33" s="0" t="n">
+      <c r="AX33">
         <v>13</v>
       </c>
-      <c r="AY33" s="0" t="n">
+      <c r="AY33">
         <v>7</v>
       </c>
-      <c r="AZ33" s="4" t="n">
-        <f aca="false">SUM(AT33:AY33)</f>
+      <c r="AZ33" s="4">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="AT34" s="0" t="n">
+      <c r="AT34">
         <v>11</v>
       </c>
-      <c r="AU34" s="0" t="n">
+      <c r="AU34">
         <v>14</v>
       </c>
-      <c r="AV34" s="0" t="n">
+      <c r="AV34">
         <v>14</v>
       </c>
-      <c r="AW34" s="0" t="n">
+      <c r="AW34">
         <v>12</v>
       </c>
-      <c r="AX34" s="0" t="n">
+      <c r="AX34">
         <v>13</v>
       </c>
-      <c r="AY34" s="0" t="n">
+      <c r="AY34">
         <v>9</v>
       </c>
-      <c r="AZ34" s="4" t="n">
-        <f aca="false">SUM(AT34:AY34)</f>
+      <c r="AZ34" s="4">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="AT35" s="0" t="n">
+      <c r="AT35">
         <v>10</v>
       </c>
-      <c r="AU35" s="0" t="n">
+      <c r="AU35">
         <v>12</v>
       </c>
-      <c r="AV35" s="0" t="n">
+      <c r="AV35">
         <v>15</v>
       </c>
-      <c r="AW35" s="0" t="n">
+      <c r="AW35">
         <v>17</v>
       </c>
-      <c r="AX35" s="0" t="n">
+      <c r="AX35">
         <v>18</v>
       </c>
-      <c r="AY35" s="0" t="n">
+      <c r="AY35">
         <v>5</v>
       </c>
-      <c r="AZ35" s="4" t="n">
-        <f aca="false">SUM(AT35:AY35)</f>
+      <c r="AZ35" s="4">
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>61</v>
       </c>
-      <c r="AT36" s="0" t="n">
+      <c r="AT36">
         <v>9</v>
       </c>
-      <c r="AU36" s="0" t="n">
+      <c r="AU36">
         <v>12</v>
       </c>
-      <c r="AV36" s="0" t="n">
+      <c r="AV36">
         <v>16</v>
       </c>
-      <c r="AW36" s="0" t="n">
+      <c r="AW36">
         <v>16</v>
       </c>
-      <c r="AX36" s="0" t="n">
+      <c r="AX36">
         <v>19</v>
       </c>
-      <c r="AY36" s="0" t="n">
+      <c r="AY36">
         <v>6</v>
       </c>
-      <c r="AZ36" s="4" t="n">
-        <f aca="false">SUM(AT36:AY36)</f>
+      <c r="AZ36" s="4">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>64</v>
       </c>
-      <c r="AT37" s="0" t="n">
+      <c r="AT37">
         <v>12</v>
       </c>
-      <c r="AU37" s="0" t="n">
+      <c r="AU37">
         <v>14</v>
       </c>
-      <c r="AV37" s="0" t="n">
+      <c r="AV37">
         <v>15</v>
       </c>
-      <c r="AW37" s="0" t="n">
+      <c r="AW37">
         <v>13</v>
       </c>
-      <c r="AX37" s="0" t="n">
+      <c r="AX37">
         <v>12</v>
       </c>
-      <c r="AY37" s="0" t="n">
+      <c r="AY37">
         <v>7</v>
       </c>
-      <c r="AZ37" s="4" t="n">
-        <f aca="false">SUM(AT37:AY37)</f>
+      <c r="AZ37" s="4">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="AT38" s="0" t="n">
+      <c r="AT38">
         <v>13</v>
       </c>
-      <c r="AU38" s="0" t="n">
+      <c r="AU38">
         <v>15</v>
       </c>
-      <c r="AV38" s="0" t="n">
+      <c r="AV38">
         <v>17</v>
       </c>
-      <c r="AW38" s="0" t="n">
+      <c r="AW38">
         <v>16</v>
       </c>
-      <c r="AX38" s="0" t="n">
+      <c r="AX38">
         <v>16</v>
       </c>
-      <c r="AY38" s="0" t="n">
+      <c r="AY38">
         <v>6</v>
       </c>
-      <c r="AZ38" s="4" t="n">
-        <f aca="false">SUM(AT38:AY38)</f>
+      <c r="AZ38" s="4">
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
-      <c r="AT39" s="0" t="n">
+      <c r="AT39">
         <v>13</v>
       </c>
-      <c r="AU39" s="0" t="n">
+      <c r="AU39">
         <v>14</v>
       </c>
-      <c r="AV39" s="0" t="n">
+      <c r="AV39">
         <v>18</v>
       </c>
-      <c r="AW39" s="0" t="n">
+      <c r="AW39">
         <v>17</v>
       </c>
-      <c r="AX39" s="0" t="n">
+      <c r="AX39">
         <v>21</v>
       </c>
-      <c r="AY39" s="0" t="n">
+      <c r="AY39">
         <v>15</v>
       </c>
-      <c r="AZ39" s="4" t="n">
-        <f aca="false">SUM(AT39:AY39)</f>
+      <c r="AZ39" s="4">
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="AT40" s="0" t="n">
+      <c r="AT40">
         <v>10</v>
       </c>
-      <c r="AU40" s="0" t="n">
+      <c r="AU40">
         <v>13</v>
       </c>
-      <c r="AV40" s="0" t="n">
+      <c r="AV40">
         <v>17</v>
       </c>
-      <c r="AW40" s="0" t="n">
+      <c r="AW40">
         <v>16</v>
       </c>
-      <c r="AX40" s="0" t="n">
+      <c r="AX40">
         <v>17</v>
       </c>
-      <c r="AY40" s="0" t="n">
+      <c r="AY40">
         <v>12</v>
       </c>
-      <c r="AZ40" s="4" t="n">
-        <f aca="false">SUM(AT40:AY40)</f>
+      <c r="AZ40" s="4">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>76</v>
       </c>
-      <c r="AT41" s="0" t="n">
+      <c r="AT41">
         <v>12</v>
       </c>
-      <c r="AU41" s="0" t="n">
+      <c r="AU41">
         <v>11</v>
       </c>
-      <c r="AV41" s="0" t="n">
+      <c r="AV41">
         <v>12</v>
       </c>
-      <c r="AW41" s="0" t="n">
+      <c r="AW41">
         <v>14</v>
       </c>
-      <c r="AX41" s="0" t="n">
+      <c r="AX41">
         <v>13</v>
       </c>
-      <c r="AY41" s="0" t="n">
+      <c r="AY41">
         <v>11</v>
       </c>
-      <c r="AZ41" s="4" t="n">
-        <f aca="false">SUM(AT41:AY41)</f>
+      <c r="AZ41" s="4">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>79</v>
       </c>
-      <c r="AT42" s="0" t="n">
+      <c r="AT42">
         <v>11</v>
       </c>
-      <c r="AU42" s="0" t="n">
+      <c r="AU42">
         <v>15</v>
       </c>
-      <c r="AV42" s="0" t="n">
+      <c r="AV42">
         <v>16</v>
       </c>
-      <c r="AW42" s="0" t="n">
+      <c r="AW42">
         <v>14</v>
       </c>
-      <c r="AX42" s="0" t="n">
+      <c r="AX42">
         <v>16</v>
       </c>
-      <c r="AY42" s="0" t="n">
+      <c r="AY42">
         <v>9</v>
       </c>
-      <c r="AZ42" s="4" t="n">
-        <f aca="false">SUM(AT42:AY42)</f>
+      <c r="AZ42" s="4">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>82</v>
       </c>
-      <c r="AT43" s="0" t="n">
+      <c r="AT43">
         <v>13</v>
       </c>
-      <c r="AU43" s="0" t="n">
+      <c r="AU43">
         <v>15</v>
       </c>
-      <c r="AV43" s="0" t="n">
+      <c r="AV43">
         <v>13</v>
       </c>
-      <c r="AW43" s="0" t="n">
+      <c r="AW43">
         <v>13</v>
       </c>
-      <c r="AX43" s="0" t="n">
+      <c r="AX43">
         <v>16</v>
       </c>
-      <c r="AY43" s="0" t="n">
+      <c r="AY43">
         <v>6</v>
       </c>
-      <c r="AZ43" s="4" t="n">
-        <f aca="false">SUM(AT43:AY43)</f>
+      <c r="AZ43" s="4">
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>50</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>65</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>70</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>35</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44">
         <v>45</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44">
         <v>35</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44">
         <v>30</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44">
         <v>50</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44">
         <v>60</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44">
         <v>55</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44">
         <v>35</v>
       </c>
-      <c r="M44" s="0" t="n">
+      <c r="M44">
         <v>50</v>
       </c>
-      <c r="N44" s="0" t="n">
+      <c r="N44">
         <v>35</v>
       </c>
-      <c r="O44" s="0" t="n">
+      <c r="O44">
         <v>30</v>
       </c>
-      <c r="P44" s="0" t="n">
+      <c r="P44">
         <v>25</v>
       </c>
-      <c r="Q44" s="0" t="n">
+      <c r="Q44">
         <v>35</v>
       </c>
-      <c r="R44" s="0" t="n">
+      <c r="R44">
         <v>20</v>
       </c>
-      <c r="S44" s="0" t="n">
+      <c r="S44">
         <v>25</v>
       </c>
-      <c r="T44" s="0" t="n">
+      <c r="T44">
         <v>30</v>
       </c>
-      <c r="U44" s="0" t="n">
+      <c r="U44">
         <v>30</v>
       </c>
-      <c r="V44" s="0" t="n">
+      <c r="V44">
         <v>20</v>
       </c>
-      <c r="W44" s="4" t="n">
-        <f aca="false">SUM(B44:V44)</f>
+      <c r="W44" s="4">
+        <f>SUM(B44:V44)</f>
         <v>830</v>
       </c>
-      <c r="AZ44" s="4" t="n">
-        <f aca="false">SUM(AZ23:AZ43)</f>
+      <c r="AZ44" s="4">
+        <f>SUM(AZ23:AZ43)</f>
         <v>1715</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>30</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>30</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>60</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>25</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45">
         <v>60</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45">
         <v>45</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45">
         <v>30</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45">
         <v>70</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45">
         <v>60</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45">
         <v>45</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="L45">
         <v>40</v>
       </c>
-      <c r="M45" s="0" t="n">
+      <c r="M45">
         <v>45</v>
       </c>
-      <c r="N45" s="0" t="n">
+      <c r="N45">
         <v>25</v>
       </c>
-      <c r="O45" s="0" t="n">
+      <c r="O45">
         <v>35</v>
       </c>
-      <c r="P45" s="0" t="n">
+      <c r="P45">
         <v>40</v>
       </c>
-      <c r="Q45" s="0" t="n">
+      <c r="Q45">
         <v>45</v>
       </c>
-      <c r="R45" s="0" t="n">
+      <c r="R45">
         <v>50</v>
       </c>
-      <c r="S45" s="0" t="n">
+      <c r="S45">
         <v>55</v>
       </c>
-      <c r="T45" s="0" t="n">
+      <c r="T45">
         <v>40</v>
       </c>
-      <c r="U45" s="0" t="n">
+      <c r="U45">
         <v>25</v>
       </c>
-      <c r="V45" s="0" t="n">
+      <c r="V45">
         <v>30</v>
       </c>
-      <c r="W45" s="4" t="n">
-        <f aca="false">SUM(B45:V45)</f>
+      <c r="W45" s="4">
+        <f>SUM(B45:V45)</f>
         <v>885</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="W46" s="4" t="n">
-        <f aca="false">SUM(W44:W45)</f>
+      <c r="W46" s="4">
+        <f>SUM(W44:W45)</f>
         <v>1715</v>
       </c>
-      <c r="AR46" s="0" t="n">
+      <c r="AR46">
         <v>85</v>
       </c>
-      <c r="AS46" s="0" t="n">
+      <c r="AS46">
         <v>50</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>30</v>
       </c>
-      <c r="AR47" s="0" t="n">
+      <c r="AR47">
         <v>105</v>
       </c>
-      <c r="AS47" s="0" t="n">
+      <c r="AS47">
         <v>85</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>32</v>
       </c>
-      <c r="AR48" s="0" t="n">
+      <c r="AR48">
         <v>125</v>
       </c>
-      <c r="AS48" s="0" t="n">
+      <c r="AS48">
         <v>130</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>36</v>
       </c>
-      <c r="AR49" s="0" t="n">
+      <c r="AR49">
         <v>215</v>
       </c>
-      <c r="AS49" s="0" t="n">
+      <c r="AS49">
         <v>235</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>40</v>
       </c>
-      <c r="AR50" s="0" t="n">
+      <c r="AR50">
         <v>300</v>
       </c>
-      <c r="AS50" s="0" t="n">
+      <c r="AS50">
         <v>385</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="AR51" s="4" t="n">
-        <f aca="false">SUM(AR46:AR50)</f>
+      <c r="AR51" s="4">
+        <f>SUM(AR46:AR50)</f>
         <v>830</v>
       </c>
-      <c r="AS51" s="4" t="n">
-        <f aca="false">SUM(AS46:AS50)</f>
+      <c r="AS51" s="4">
+        <f>SUM(AS46:AS50)</f>
         <v>885</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>17</v>
       </c>
-      <c r="AT52" s="0" t="n">
+      <c r="AT52">
         <v>15</v>
       </c>
-      <c r="AU52" s="0" t="n">
+      <c r="AU52">
         <v>24</v>
       </c>
-      <c r="AV52" s="0" t="n">
+      <c r="AV52">
         <v>37</v>
       </c>
-      <c r="AW52" s="0" t="n">
+      <c r="AW52">
         <v>63</v>
       </c>
-      <c r="AX52" s="0" t="n">
+      <c r="AX52">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Data/Raw data/NN_SAM_2020.xlsx
+++ b/Data/Raw data/NN_SAM_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nauka\GitHub\cge_model_python\Data\Raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66266751-ECB0-404C-AE5C-32C375228580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C3B57-5DC1-4C24-8ABB-018CBA075CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11475" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,12 +341,6 @@
         <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -363,12 +357,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in 20% - Accent3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -1096,10 +1089,10 @@
   <dimension ref="A1:AZ52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="AR51" sqref="AR51"/>
+      <selection pane="bottomRight" activeCell="AR23" sqref="AR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,37 +1330,37 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1389,12 +1382,8 @@
       <c r="AY23">
         <v>8</v>
       </c>
-      <c r="AZ23" s="4">
-        <f t="shared" ref="AZ23:AZ43" si="0">SUM(AT23:AY23)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1416,12 +1405,8 @@
       <c r="AY24">
         <v>7</v>
       </c>
-      <c r="AZ24" s="4">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1443,12 +1428,8 @@
       <c r="AY25">
         <v>33</v>
       </c>
-      <c r="AZ25" s="4">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1470,12 +1451,8 @@
       <c r="AY26">
         <v>13</v>
       </c>
-      <c r="AZ26" s="4">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1497,12 +1474,8 @@
       <c r="AY27">
         <v>15</v>
       </c>
-      <c r="AZ27" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1524,12 +1497,8 @@
       <c r="AY28">
         <v>12</v>
       </c>
-      <c r="AZ28" s="4">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1551,12 +1520,8 @@
       <c r="AY29">
         <v>13</v>
       </c>
-      <c r="AZ29" s="4">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1578,12 +1543,8 @@
       <c r="AY30">
         <v>10</v>
       </c>
-      <c r="AZ30" s="4">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1605,12 +1566,8 @@
       <c r="AY31">
         <v>6</v>
       </c>
-      <c r="AZ31" s="4">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1632,12 +1589,8 @@
       <c r="AY32">
         <v>23</v>
       </c>
-      <c r="AZ32" s="4">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -1659,12 +1612,8 @@
       <c r="AY33">
         <v>7</v>
       </c>
-      <c r="AZ33" s="4">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1686,12 +1635,8 @@
       <c r="AY34">
         <v>9</v>
       </c>
-      <c r="AZ34" s="4">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1713,12 +1658,8 @@
       <c r="AY35">
         <v>5</v>
       </c>
-      <c r="AZ35" s="4">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1740,12 +1681,8 @@
       <c r="AY36">
         <v>6</v>
       </c>
-      <c r="AZ36" s="4">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -1767,12 +1704,8 @@
       <c r="AY37">
         <v>7</v>
       </c>
-      <c r="AZ37" s="4">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1794,12 +1727,8 @@
       <c r="AY38">
         <v>6</v>
       </c>
-      <c r="AZ38" s="4">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -1821,12 +1750,8 @@
       <c r="AY39">
         <v>15</v>
       </c>
-      <c r="AZ39" s="4">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -1848,12 +1773,8 @@
       <c r="AY40">
         <v>12</v>
       </c>
-      <c r="AZ40" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -1875,12 +1796,8 @@
       <c r="AY41">
         <v>11</v>
       </c>
-      <c r="AZ41" s="4">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1902,12 +1819,8 @@
       <c r="AY42">
         <v>9</v>
       </c>
-      <c r="AZ42" s="4">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1929,12 +1842,8 @@
       <c r="AY43">
         <v>6</v>
       </c>
-      <c r="AZ43" s="4">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2001,16 +1910,8 @@
       <c r="V44">
         <v>20</v>
       </c>
-      <c r="W44" s="4">
-        <f>SUM(B44:V44)</f>
-        <v>830</v>
-      </c>
-      <c r="AZ44" s="4">
-        <f>SUM(AZ23:AZ43)</f>
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2077,19 +1978,11 @@
       <c r="V45">
         <v>30</v>
       </c>
-      <c r="W45" s="4">
-        <f>SUM(B45:V45)</f>
-        <v>885</v>
-      </c>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="W46" s="4">
-        <f>SUM(W44:W45)</f>
-        <v>1715</v>
-      </c>
       <c r="AR46">
         <v>85</v>
       </c>
@@ -2097,7 +1990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2108,7 +2001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2144,14 +2037,6 @@
     <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
-      </c>
-      <c r="AR51" s="4">
-        <f>SUM(AR46:AR50)</f>
-        <v>830</v>
-      </c>
-      <c r="AS51" s="4">
-        <f>SUM(AS46:AS50)</f>
-        <v>885</v>
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
